--- a/files/separadas/repeat_p24_2.xlsx
+++ b/files/separadas/repeat_p24_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="327">
   <si>
     <t>p24_2_nom</t>
   </si>
@@ -77,18 +77,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Mesas de trabajo metodologia Cocreare</t>
@@ -1390,13 +1378,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,40 +1448,28 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1502,48 +1478,36 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M3">
         <v>7</v>
@@ -1552,48 +1516,36 @@
         <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="S3" t="s">
-        <v>329</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -1602,48 +1554,36 @@
         <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="S4" t="s">
-        <v>329</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1652,48 +1592,36 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>329</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D6">
         <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -1702,48 +1630,36 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P6" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S6" t="s">
-        <v>329</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1752,48 +1668,36 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>329</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D8">
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M8">
         <v>11</v>
@@ -1802,48 +1706,36 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S8" t="s">
-        <v>329</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D9">
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -1852,48 +1744,36 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S9" t="s">
-        <v>329</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D10">
         <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M10">
         <v>11</v>
@@ -1902,48 +1782,36 @@
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S10" t="s">
-        <v>329</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D11">
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M11">
         <v>11</v>
@@ -1952,48 +1820,36 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S11" t="s">
-        <v>329</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D12">
         <v>400</v>
       </c>
       <c r="E12" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -2002,48 +1858,36 @@
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S12" t="s">
-        <v>329</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D13">
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -2052,48 +1896,36 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S13" t="s">
-        <v>329</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -2102,48 +1934,36 @@
         <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P14" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S14" t="s">
-        <v>329</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M15">
         <v>12</v>
@@ -2152,48 +1972,36 @@
         <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P15" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S15" t="s">
-        <v>329</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -2202,48 +2010,36 @@
         <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="P16" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="S16" t="s">
-        <v>329</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D17">
         <v>300</v>
       </c>
       <c r="E17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M17">
         <v>16</v>
@@ -2252,48 +2048,36 @@
         <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P17" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="S17" t="s">
-        <v>329</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M18">
         <v>17</v>
@@ -2302,48 +2086,36 @@
         <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P18" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S18" t="s">
-        <v>329</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M19">
         <v>19</v>
@@ -2352,48 +2124,36 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S19" t="s">
-        <v>329</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M20">
         <v>19</v>
@@ -2402,48 +2162,36 @@
         <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S20" t="s">
-        <v>329</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D21">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -2452,48 +2200,36 @@
         <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S21" t="s">
-        <v>329</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D22">
         <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M22">
         <v>22</v>
@@ -2502,48 +2238,36 @@
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P22" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S22" t="s">
-        <v>329</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M23">
         <v>24</v>
@@ -2552,48 +2276,36 @@
         <v>51</v>
       </c>
       <c r="O23" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P23" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S23" t="s">
-        <v>330</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M24">
         <v>24</v>
@@ -2602,48 +2314,36 @@
         <v>51</v>
       </c>
       <c r="O24" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S24" t="s">
-        <v>330</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2652,48 +2352,36 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S25" t="s">
-        <v>330</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -2702,48 +2390,36 @@
         <v>51</v>
       </c>
       <c r="O26" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P26" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S26" t="s">
-        <v>330</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M27">
         <v>24</v>
@@ -2752,48 +2428,36 @@
         <v>51</v>
       </c>
       <c r="O27" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P27" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S27" t="s">
-        <v>330</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M28">
         <v>24</v>
@@ -2802,48 +2466,36 @@
         <v>51</v>
       </c>
       <c r="O28" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S28" t="s">
-        <v>330</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M29">
         <v>24</v>
@@ -2852,48 +2504,36 @@
         <v>51</v>
       </c>
       <c r="O29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S29" t="s">
-        <v>330</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M30">
         <v>24</v>
@@ -2902,48 +2542,36 @@
         <v>51</v>
       </c>
       <c r="O30" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P30" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S30" t="s">
-        <v>330</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M31">
         <v>24</v>
@@ -2952,48 +2580,36 @@
         <v>51</v>
       </c>
       <c r="O31" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S31" t="s">
-        <v>330</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M32">
         <v>24</v>
@@ -3002,48 +2618,36 @@
         <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S32" t="s">
-        <v>330</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M33">
         <v>24</v>
@@ -3052,48 +2656,36 @@
         <v>51</v>
       </c>
       <c r="O33" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S33" t="s">
-        <v>330</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M34">
         <v>24</v>
@@ -3102,48 +2694,36 @@
         <v>51</v>
       </c>
       <c r="O34" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P34" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S34" t="s">
-        <v>330</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M35">
         <v>24</v>
@@ -3152,48 +2732,36 @@
         <v>51</v>
       </c>
       <c r="O35" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P35" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S35" t="s">
-        <v>330</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D36">
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -3202,48 +2770,36 @@
         <v>55</v>
       </c>
       <c r="O36" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P36" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S36" t="s">
-        <v>329</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D37">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -3252,48 +2808,36 @@
         <v>55</v>
       </c>
       <c r="O37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P37" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S37" t="s">
-        <v>329</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D38">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M38">
         <v>27</v>
@@ -3302,48 +2846,36 @@
         <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="P38" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S38" t="s">
-        <v>329</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M39">
         <v>30</v>
@@ -3352,48 +2884,36 @@
         <v>59</v>
       </c>
       <c r="O39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P39" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S39" t="s">
-        <v>329</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D40">
         <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M40">
         <v>32</v>
@@ -3402,48 +2922,36 @@
         <v>61</v>
       </c>
       <c r="O40" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S40" t="s">
-        <v>329</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D41">
         <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M41">
         <v>32</v>
@@ -3452,48 +2960,36 @@
         <v>61</v>
       </c>
       <c r="O41" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S41" t="s">
-        <v>329</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D42">
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M42">
         <v>32</v>
@@ -3502,48 +2998,36 @@
         <v>61</v>
       </c>
       <c r="O42" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S42" t="s">
-        <v>329</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D43">
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M43">
         <v>32</v>
@@ -3552,48 +3036,36 @@
         <v>61</v>
       </c>
       <c r="O43" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S43" t="s">
-        <v>329</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D44">
         <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M44">
         <v>32</v>
@@ -3602,48 +3074,36 @@
         <v>61</v>
       </c>
       <c r="O44" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S44" t="s">
-        <v>329</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D45">
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M45">
         <v>32</v>
@@ -3652,48 +3112,36 @@
         <v>61</v>
       </c>
       <c r="O45" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="P45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S45" t="s">
-        <v>329</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M46">
         <v>33</v>
@@ -3702,48 +3150,36 @@
         <v>63</v>
       </c>
       <c r="O46" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P46" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S46" t="s">
-        <v>329</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M47">
         <v>33</v>
@@ -3752,48 +3188,36 @@
         <v>63</v>
       </c>
       <c r="O47" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P47" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S47" t="s">
-        <v>329</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M48">
         <v>33</v>
@@ -3802,48 +3226,36 @@
         <v>63</v>
       </c>
       <c r="O48" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P48" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S48" t="s">
-        <v>329</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M49">
         <v>33</v>
@@ -3852,48 +3264,36 @@
         <v>63</v>
       </c>
       <c r="O49" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P49" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S49" t="s">
-        <v>329</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C50" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M50">
         <v>33</v>
@@ -3902,48 +3302,36 @@
         <v>63</v>
       </c>
       <c r="O50" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P50" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S50" t="s">
-        <v>329</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M51">
         <v>33</v>
@@ -3952,48 +3340,36 @@
         <v>63</v>
       </c>
       <c r="O51" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P51" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S51" t="s">
-        <v>329</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M52">
         <v>33</v>
@@ -4002,48 +3378,36 @@
         <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="P52" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S52" t="s">
-        <v>329</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-      <c r="Y52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M53">
         <v>39</v>
@@ -4052,48 +3416,36 @@
         <v>81</v>
       </c>
       <c r="O53" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P53" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S53" t="s">
-        <v>329</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C54" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M54">
         <v>39</v>
@@ -4102,48 +3454,36 @@
         <v>81</v>
       </c>
       <c r="O54" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S54" t="s">
-        <v>329</v>
-      </c>
-      <c r="V54">
-        <v>0</v>
-      </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-      <c r="Y54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M55">
         <v>39</v>
@@ -4152,48 +3492,36 @@
         <v>81</v>
       </c>
       <c r="O55" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S55" t="s">
-        <v>329</v>
-      </c>
-      <c r="V55">
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" t="s">
         <v>79</v>
-      </c>
-      <c r="B56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C56" t="s">
-        <v>83</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M56">
         <v>39</v>
@@ -4202,48 +3530,36 @@
         <v>81</v>
       </c>
       <c r="O56" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P56" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S56" t="s">
-        <v>329</v>
-      </c>
-      <c r="V56">
-        <v>0</v>
-      </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-      <c r="Y56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M57">
         <v>39</v>
@@ -4252,48 +3568,36 @@
         <v>81</v>
       </c>
       <c r="O57" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P57" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S57" t="s">
-        <v>329</v>
-      </c>
-      <c r="V57">
-        <v>0</v>
-      </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-      <c r="Y57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C58" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M58">
         <v>39</v>
@@ -4302,48 +3606,36 @@
         <v>81</v>
       </c>
       <c r="O58" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P58" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S58" t="s">
-        <v>329</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M59">
         <v>39</v>
@@ -4352,48 +3644,36 @@
         <v>81</v>
       </c>
       <c r="O59" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P59" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S59" t="s">
-        <v>329</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M60">
         <v>42</v>
@@ -4402,48 +3682,36 @@
         <v>84</v>
       </c>
       <c r="O60" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P60" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S60" t="s">
-        <v>329</v>
-      </c>
-      <c r="V60">
-        <v>0</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D61">
         <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M61">
         <v>47</v>
@@ -4452,48 +3720,36 @@
         <v>91</v>
       </c>
       <c r="O61" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="S61" t="s">
-        <v>329</v>
-      </c>
-      <c r="V61">
-        <v>0</v>
-      </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D62">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M62">
         <v>51</v>
@@ -4502,48 +3758,36 @@
         <v>95</v>
       </c>
       <c r="O62" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S62" t="s">
-        <v>329</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M63">
         <v>51</v>
@@ -4552,48 +3796,36 @@
         <v>95</v>
       </c>
       <c r="O63" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S63" t="s">
-        <v>329</v>
-      </c>
-      <c r="V63">
-        <v>0</v>
-      </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M64">
         <v>51</v>
@@ -4602,48 +3834,36 @@
         <v>95</v>
       </c>
       <c r="O64" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S64" t="s">
-        <v>329</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D65">
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M65">
         <v>51</v>
@@ -4652,48 +3872,36 @@
         <v>95</v>
       </c>
       <c r="O65" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P65" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S65" t="s">
-        <v>329</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-      <c r="Y65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D66">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M66">
         <v>51</v>
@@ -4702,48 +3910,36 @@
         <v>95</v>
       </c>
       <c r="O66" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P66" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S66" t="s">
-        <v>329</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-      <c r="Y66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M67">
         <v>51</v>
@@ -4752,48 +3948,36 @@
         <v>95</v>
       </c>
       <c r="O67" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P67" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S67" t="s">
-        <v>329</v>
-      </c>
-      <c r="V67">
-        <v>0</v>
-      </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-      <c r="Y67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B68" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M68">
         <v>51</v>
@@ -4802,48 +3986,36 @@
         <v>95</v>
       </c>
       <c r="O68" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P68" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S68" t="s">
-        <v>329</v>
-      </c>
-      <c r="V68">
-        <v>0</v>
-      </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-      <c r="Y68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D69">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M69">
         <v>51</v>
@@ -4852,48 +4024,36 @@
         <v>95</v>
       </c>
       <c r="O69" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S69" t="s">
-        <v>329</v>
-      </c>
-      <c r="V69">
-        <v>0</v>
-      </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-      <c r="Y69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D70">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M70">
         <v>51</v>
@@ -4902,48 +4062,36 @@
         <v>95</v>
       </c>
       <c r="O70" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P70" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S70" t="s">
-        <v>329</v>
-      </c>
-      <c r="V70">
-        <v>0</v>
-      </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-      <c r="Y70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M71">
         <v>56</v>
@@ -4952,48 +4100,36 @@
         <v>101</v>
       </c>
       <c r="O71" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P71" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S71" t="s">
-        <v>329</v>
-      </c>
-      <c r="V71">
-        <v>0</v>
-      </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-      <c r="Y71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B72" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D72">
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M72">
         <v>56</v>
@@ -5002,48 +4138,36 @@
         <v>101</v>
       </c>
       <c r="O72" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P72" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S72" t="s">
-        <v>329</v>
-      </c>
-      <c r="V72">
-        <v>0</v>
-      </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-      <c r="Y72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M73">
         <v>57</v>
@@ -5052,48 +4176,36 @@
         <v>102</v>
       </c>
       <c r="O73" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="P73" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S73" t="s">
-        <v>329</v>
-      </c>
-      <c r="V73">
-        <v>0</v>
-      </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-      <c r="Y73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M74">
         <v>59</v>
@@ -5102,48 +4214,36 @@
         <v>104</v>
       </c>
       <c r="O74" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P74" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S74" t="s">
-        <v>329</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D75">
         <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M75">
         <v>64</v>
@@ -5152,48 +4252,36 @@
         <v>110</v>
       </c>
       <c r="O75" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P75" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S75" t="s">
-        <v>329</v>
-      </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M76">
         <v>69</v>
@@ -5202,48 +4290,36 @@
         <v>117</v>
       </c>
       <c r="O76" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P76" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="S76" t="s">
-        <v>329</v>
-      </c>
-      <c r="V76">
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D77">
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M77">
         <v>69</v>
@@ -5252,25 +4328,13 @@
         <v>117</v>
       </c>
       <c r="O77" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="S77" t="s">
-        <v>329</v>
-      </c>
-      <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <v>0</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_2.xlsx
+++ b/files/separadas/repeat_p24_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="328">
   <si>
     <t>p24_2_nom</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>nota_iniciativa</t>
   </si>
   <si>
     <t>Mesas de trabajo metodologia Cocreare</t>
@@ -1378,13 +1381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1448,28 +1451,31 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1478,36 +1484,39 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M3">
         <v>7</v>
@@ -1516,36 +1525,39 @@
         <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="S3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -1554,36 +1566,39 @@
         <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="S4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1592,36 +1607,39 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D6">
         <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -1630,36 +1648,39 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P6" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1668,36 +1689,39 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D8">
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M8">
         <v>11</v>
@@ -1706,36 +1730,39 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9">
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -1744,36 +1771,39 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D10">
         <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M10">
         <v>11</v>
@@ -1782,36 +1812,39 @@
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D11">
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M11">
         <v>11</v>
@@ -1820,36 +1853,39 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D12">
         <v>400</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -1858,36 +1894,39 @@
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S12" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D13">
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1896,36 +1935,39 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1934,36 +1976,39 @@
         <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P14" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S14" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M15">
         <v>12</v>
@@ -1972,36 +2017,39 @@
         <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P15" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S15" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>326</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -2010,36 +2058,39 @@
         <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P16" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="S16" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D17">
         <v>300</v>
       </c>
       <c r="E17" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M17">
         <v>16</v>
@@ -2048,36 +2099,39 @@
         <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P17" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="S17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M18">
         <v>17</v>
@@ -2086,36 +2140,39 @@
         <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P18" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S18" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M19">
         <v>19</v>
@@ -2124,36 +2181,39 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M20">
         <v>19</v>
@@ -2162,36 +2222,39 @@
         <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S20" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D21">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -2200,36 +2263,39 @@
         <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S21" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D22">
         <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M22">
         <v>22</v>
@@ -2238,36 +2304,39 @@
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P22" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S22" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M23">
         <v>24</v>
@@ -2276,36 +2345,39 @@
         <v>51</v>
       </c>
       <c r="O23" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P23" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M24">
         <v>24</v>
@@ -2314,36 +2386,39 @@
         <v>51</v>
       </c>
       <c r="O24" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2352,36 +2427,39 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -2390,36 +2468,39 @@
         <v>51</v>
       </c>
       <c r="O26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P26" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M27">
         <v>24</v>
@@ -2428,36 +2509,39 @@
         <v>51</v>
       </c>
       <c r="O27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P27" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M28">
         <v>24</v>
@@ -2466,36 +2550,39 @@
         <v>51</v>
       </c>
       <c r="O28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M29">
         <v>24</v>
@@ -2504,36 +2591,39 @@
         <v>51</v>
       </c>
       <c r="O29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M30">
         <v>24</v>
@@ -2542,36 +2632,39 @@
         <v>51</v>
       </c>
       <c r="O30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P30" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M31">
         <v>24</v>
@@ -2580,36 +2673,39 @@
         <v>51</v>
       </c>
       <c r="O31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M32">
         <v>24</v>
@@ -2618,36 +2714,39 @@
         <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33">
         <v>24</v>
@@ -2656,36 +2755,39 @@
         <v>51</v>
       </c>
       <c r="O33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M34">
         <v>24</v>
@@ -2694,36 +2796,39 @@
         <v>51</v>
       </c>
       <c r="O34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P34" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S34" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M35">
         <v>24</v>
@@ -2732,36 +2837,39 @@
         <v>51</v>
       </c>
       <c r="O35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P35" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>327</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D36">
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -2770,36 +2878,39 @@
         <v>55</v>
       </c>
       <c r="O36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P36" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S36" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D37">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -2808,36 +2919,39 @@
         <v>55</v>
       </c>
       <c r="O37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P37" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S37" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D38">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M38">
         <v>27</v>
@@ -2846,36 +2960,39 @@
         <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P38" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S38" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M39">
         <v>30</v>
@@ -2884,36 +3001,39 @@
         <v>59</v>
       </c>
       <c r="O39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P39" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S39" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D40">
         <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M40">
         <v>32</v>
@@ -2922,36 +3042,39 @@
         <v>61</v>
       </c>
       <c r="O40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S40" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D41">
         <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M41">
         <v>32</v>
@@ -2960,36 +3083,39 @@
         <v>61</v>
       </c>
       <c r="O41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S41" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D42">
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M42">
         <v>32</v>
@@ -2998,36 +3124,39 @@
         <v>61</v>
       </c>
       <c r="O42" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S42" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D43">
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M43">
         <v>32</v>
@@ -3036,36 +3165,39 @@
         <v>61</v>
       </c>
       <c r="O43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S43" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D44">
         <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M44">
         <v>32</v>
@@ -3074,36 +3206,39 @@
         <v>61</v>
       </c>
       <c r="O44" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S44" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D45">
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M45">
         <v>32</v>
@@ -3112,36 +3247,39 @@
         <v>61</v>
       </c>
       <c r="O45" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S45" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M46">
         <v>33</v>
@@ -3150,36 +3288,39 @@
         <v>63</v>
       </c>
       <c r="O46" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P46" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S46" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M47">
         <v>33</v>
@@ -3188,36 +3329,39 @@
         <v>63</v>
       </c>
       <c r="O47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P47" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S47" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M48">
         <v>33</v>
@@ -3226,36 +3370,39 @@
         <v>63</v>
       </c>
       <c r="O48" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P48" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S48" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M49">
         <v>33</v>
@@ -3264,36 +3411,39 @@
         <v>63</v>
       </c>
       <c r="O49" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P49" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S49" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M50">
         <v>33</v>
@@ -3302,36 +3452,39 @@
         <v>63</v>
       </c>
       <c r="O50" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P50" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S50" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M51">
         <v>33</v>
@@ -3340,36 +3493,39 @@
         <v>63</v>
       </c>
       <c r="O51" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P51" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M52">
         <v>33</v>
@@ -3378,36 +3534,39 @@
         <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P52" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S52" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M53">
         <v>39</v>
@@ -3416,36 +3575,39 @@
         <v>81</v>
       </c>
       <c r="O53" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P53" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S53" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M54">
         <v>39</v>
@@ -3454,36 +3616,39 @@
         <v>81</v>
       </c>
       <c r="O54" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S54" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M55">
         <v>39</v>
@@ -3492,36 +3657,39 @@
         <v>81</v>
       </c>
       <c r="O55" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S55" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M56">
         <v>39</v>
@@ -3530,36 +3698,39 @@
         <v>81</v>
       </c>
       <c r="O56" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P56" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S56" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M57">
         <v>39</v>
@@ -3568,36 +3739,39 @@
         <v>81</v>
       </c>
       <c r="O57" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P57" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S57" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M58">
         <v>39</v>
@@ -3606,36 +3780,39 @@
         <v>81</v>
       </c>
       <c r="O58" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P58" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S58" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M59">
         <v>39</v>
@@ -3644,36 +3821,39 @@
         <v>81</v>
       </c>
       <c r="O59" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P59" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S59" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M60">
         <v>42</v>
@@ -3682,36 +3862,39 @@
         <v>84</v>
       </c>
       <c r="O60" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P60" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S60" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D61">
         <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M61">
         <v>47</v>
@@ -3720,36 +3903,39 @@
         <v>91</v>
       </c>
       <c r="O61" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="S61" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D62">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M62">
         <v>51</v>
@@ -3758,36 +3944,39 @@
         <v>95</v>
       </c>
       <c r="O62" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S62" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M63">
         <v>51</v>
@@ -3796,36 +3985,39 @@
         <v>95</v>
       </c>
       <c r="O63" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S63" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M64">
         <v>51</v>
@@ -3834,36 +4026,39 @@
         <v>95</v>
       </c>
       <c r="O64" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S64" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D65">
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M65">
         <v>51</v>
@@ -3872,36 +4067,39 @@
         <v>95</v>
       </c>
       <c r="O65" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P65" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S65" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D66">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M66">
         <v>51</v>
@@ -3910,36 +4108,39 @@
         <v>95</v>
       </c>
       <c r="O66" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P66" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S66" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M67">
         <v>51</v>
@@ -3948,36 +4149,39 @@
         <v>95</v>
       </c>
       <c r="O67" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P67" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S67" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M68">
         <v>51</v>
@@ -3986,36 +4190,39 @@
         <v>95</v>
       </c>
       <c r="O68" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P68" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S68" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D69">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M69">
         <v>51</v>
@@ -4024,36 +4231,39 @@
         <v>95</v>
       </c>
       <c r="O69" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S69" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D70">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M70">
         <v>51</v>
@@ -4062,36 +4272,39 @@
         <v>95</v>
       </c>
       <c r="O70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P70" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S70" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M71">
         <v>56</v>
@@ -4100,36 +4313,39 @@
         <v>101</v>
       </c>
       <c r="O71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P71" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S71" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D72">
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M72">
         <v>56</v>
@@ -4138,36 +4354,39 @@
         <v>101</v>
       </c>
       <c r="O72" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P72" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S72" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M73">
         <v>57</v>
@@ -4176,36 +4395,39 @@
         <v>102</v>
       </c>
       <c r="O73" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P73" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S73" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M74">
         <v>59</v>
@@ -4214,36 +4436,39 @@
         <v>104</v>
       </c>
       <c r="O74" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P74" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S74" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75">
         <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M75">
         <v>64</v>
@@ -4252,36 +4477,39 @@
         <v>110</v>
       </c>
       <c r="O75" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P75" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S75" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M76">
         <v>69</v>
@@ -4290,36 +4518,39 @@
         <v>117</v>
       </c>
       <c r="O76" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P76" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="S76" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>326</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77">
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M77">
         <v>69</v>
@@ -4328,13 +4559,16 @@
         <v>117</v>
       </c>
       <c r="O77" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="S77" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/files/separadas/repeat_p24_2.xlsx
+++ b/files/separadas/repeat_p24_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="329">
   <si>
     <t>p24_2_nom</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>_submission__tags</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1381,13 +1384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:W77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1454,28 +1457,31 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1484,39 +1490,42 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M3">
         <v>7</v>
@@ -1525,39 +1534,42 @@
         <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="S3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -1566,39 +1578,42 @@
         <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="S4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1607,39 +1622,42 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D6">
         <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -1648,39 +1666,42 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P6" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1689,39 +1710,42 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D8">
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M8">
         <v>11</v>
@@ -1730,39 +1754,42 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="W8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D9">
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -1771,39 +1798,42 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="W9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D10">
         <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M10">
         <v>11</v>
@@ -1812,39 +1842,42 @@
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D11">
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M11">
         <v>11</v>
@@ -1853,39 +1886,42 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D12">
         <v>400</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -1894,39 +1930,42 @@
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D13">
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1935,39 +1974,42 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -1976,39 +2018,42 @@
         <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P14" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S14" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="W14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M15">
         <v>12</v>
@@ -2017,39 +2062,42 @@
         <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P15" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="W15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -2058,39 +2106,42 @@
         <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P16" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="S16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
+      <c r="W16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D17">
         <v>300</v>
       </c>
       <c r="E17" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M17">
         <v>16</v>
@@ -2099,39 +2150,42 @@
         <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P17" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="S17" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
+      <c r="W17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M18">
         <v>17</v>
@@ -2140,39 +2194,42 @@
         <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P18" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S18" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
+      <c r="W18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M19">
         <v>19</v>
@@ -2181,39 +2238,42 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:22">
+      <c r="W19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M20">
         <v>19</v>
@@ -2222,39 +2282,42 @@
         <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
+      <c r="W20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D21">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -2263,39 +2326,42 @@
         <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S21" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="W21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D22">
         <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M22">
         <v>22</v>
@@ -2304,39 +2370,42 @@
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P22" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:22">
+      <c r="W22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M23">
         <v>24</v>
@@ -2345,39 +2414,42 @@
         <v>51</v>
       </c>
       <c r="O23" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P23" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S23" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:22">
+      <c r="W23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M24">
         <v>24</v>
@@ -2386,39 +2458,42 @@
         <v>51</v>
       </c>
       <c r="O24" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
+      <c r="W24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2427,39 +2502,42 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S25" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:22">
+      <c r="W25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -2468,39 +2546,42 @@
         <v>51</v>
       </c>
       <c r="O26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P26" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S26" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="W26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M27">
         <v>24</v>
@@ -2509,39 +2590,42 @@
         <v>51</v>
       </c>
       <c r="O27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P27" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S27" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="W27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M28">
         <v>24</v>
@@ -2550,39 +2634,42 @@
         <v>51</v>
       </c>
       <c r="O28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:22">
+      <c r="W28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M29">
         <v>24</v>
@@ -2591,39 +2678,42 @@
         <v>51</v>
       </c>
       <c r="O29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S29" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:22">
+      <c r="W29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M30">
         <v>24</v>
@@ -2632,39 +2722,42 @@
         <v>51</v>
       </c>
       <c r="O30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P30" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S30" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:22">
+      <c r="W30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M31">
         <v>24</v>
@@ -2673,39 +2766,42 @@
         <v>51</v>
       </c>
       <c r="O31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S31" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:22">
+      <c r="W31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32">
         <v>24</v>
@@ -2714,39 +2810,42 @@
         <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S32" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="W32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M33">
         <v>24</v>
@@ -2755,39 +2854,42 @@
         <v>51</v>
       </c>
       <c r="O33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="W33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M34">
         <v>24</v>
@@ -2796,39 +2898,42 @@
         <v>51</v>
       </c>
       <c r="O34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P34" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S34" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="W34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M35">
         <v>24</v>
@@ -2837,39 +2942,42 @@
         <v>51</v>
       </c>
       <c r="O35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P35" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S35" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="W35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D36">
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -2878,39 +2986,42 @@
         <v>55</v>
       </c>
       <c r="O36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P36" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="W36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D37">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -2919,39 +3030,42 @@
         <v>55</v>
       </c>
       <c r="O37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P37" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="W37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D38">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M38">
         <v>27</v>
@@ -2960,39 +3074,42 @@
         <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P38" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S38" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:22">
+      <c r="W38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M39">
         <v>30</v>
@@ -3001,39 +3118,42 @@
         <v>59</v>
       </c>
       <c r="O39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P39" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="W39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D40">
         <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M40">
         <v>32</v>
@@ -3042,39 +3162,42 @@
         <v>61</v>
       </c>
       <c r="O40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S40" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:22">
+      <c r="W40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D41">
         <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M41">
         <v>32</v>
@@ -3083,39 +3206,42 @@
         <v>61</v>
       </c>
       <c r="O41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="W41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D42">
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M42">
         <v>32</v>
@@ -3124,39 +3250,42 @@
         <v>61</v>
       </c>
       <c r="O42" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="W42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D43">
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M43">
         <v>32</v>
@@ -3165,39 +3294,42 @@
         <v>61</v>
       </c>
       <c r="O43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="W43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D44">
         <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M44">
         <v>32</v>
@@ -3206,39 +3338,42 @@
         <v>61</v>
       </c>
       <c r="O44" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="W44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D45">
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M45">
         <v>32</v>
@@ -3247,39 +3382,42 @@
         <v>61</v>
       </c>
       <c r="O45" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:22">
+      <c r="W45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M46">
         <v>33</v>
@@ -3288,39 +3426,42 @@
         <v>63</v>
       </c>
       <c r="O46" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P46" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="W46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M47">
         <v>33</v>
@@ -3329,39 +3470,42 @@
         <v>63</v>
       </c>
       <c r="O47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P47" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="W47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M48">
         <v>33</v>
@@ -3370,39 +3514,42 @@
         <v>63</v>
       </c>
       <c r="O48" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P48" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:22">
+      <c r="W48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M49">
         <v>33</v>
@@ -3411,39 +3558,42 @@
         <v>63</v>
       </c>
       <c r="O49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P49" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:22">
+      <c r="W49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M50">
         <v>33</v>
@@ -3452,39 +3602,42 @@
         <v>63</v>
       </c>
       <c r="O50" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P50" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:22">
+      <c r="W50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M51">
         <v>33</v>
@@ -3493,39 +3646,42 @@
         <v>63</v>
       </c>
       <c r="O51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P51" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:22">
+      <c r="W51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M52">
         <v>33</v>
@@ -3534,39 +3690,42 @@
         <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P52" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:22">
+      <c r="W52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M53">
         <v>39</v>
@@ -3575,39 +3734,42 @@
         <v>81</v>
       </c>
       <c r="O53" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P53" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S53" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:22">
+      <c r="W53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M54">
         <v>39</v>
@@ -3616,39 +3778,42 @@
         <v>81</v>
       </c>
       <c r="O54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S54" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:22">
+      <c r="W54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M55">
         <v>39</v>
@@ -3657,39 +3822,42 @@
         <v>81</v>
       </c>
       <c r="O55" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S55" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:22">
+      <c r="W55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M56">
         <v>39</v>
@@ -3698,39 +3866,42 @@
         <v>81</v>
       </c>
       <c r="O56" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P56" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S56" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:22">
+      <c r="W56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M57">
         <v>39</v>
@@ -3739,39 +3910,42 @@
         <v>81</v>
       </c>
       <c r="O57" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P57" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S57" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:22">
+      <c r="W57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M58">
         <v>39</v>
@@ -3780,39 +3954,42 @@
         <v>81</v>
       </c>
       <c r="O58" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P58" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S58" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:22">
+      <c r="W58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M59">
         <v>39</v>
@@ -3821,39 +3998,42 @@
         <v>81</v>
       </c>
       <c r="O59" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P59" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S59" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:22">
+      <c r="W59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C60" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M60">
         <v>42</v>
@@ -3862,39 +4042,42 @@
         <v>84</v>
       </c>
       <c r="O60" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P60" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S60" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:22">
+      <c r="W60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D61">
         <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M61">
         <v>47</v>
@@ -3903,39 +4086,42 @@
         <v>91</v>
       </c>
       <c r="O61" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="S61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:22">
+      <c r="W61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D62">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M62">
         <v>51</v>
@@ -3944,39 +4130,42 @@
         <v>95</v>
       </c>
       <c r="O62" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S62" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:22">
+      <c r="W62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M63">
         <v>51</v>
@@ -3985,39 +4174,42 @@
         <v>95</v>
       </c>
       <c r="O63" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S63" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:22">
+      <c r="W63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M64">
         <v>51</v>
@@ -4026,39 +4218,42 @@
         <v>95</v>
       </c>
       <c r="O64" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S64" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:22">
+      <c r="W64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D65">
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M65">
         <v>51</v>
@@ -4067,39 +4262,42 @@
         <v>95</v>
       </c>
       <c r="O65" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P65" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S65" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:22">
+      <c r="W65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D66">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M66">
         <v>51</v>
@@ -4108,39 +4306,42 @@
         <v>95</v>
       </c>
       <c r="O66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P66" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S66" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:22">
+      <c r="W66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M67">
         <v>51</v>
@@ -4149,39 +4350,42 @@
         <v>95</v>
       </c>
       <c r="O67" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P67" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S67" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:22">
+      <c r="W67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M68">
         <v>51</v>
@@ -4190,39 +4394,42 @@
         <v>95</v>
       </c>
       <c r="O68" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P68" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S68" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:22">
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D69">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M69">
         <v>51</v>
@@ -4231,39 +4438,42 @@
         <v>95</v>
       </c>
       <c r="O69" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S69" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:22">
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D70">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M70">
         <v>51</v>
@@ -4272,39 +4482,42 @@
         <v>95</v>
       </c>
       <c r="O70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P70" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S70" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:22">
+      <c r="W70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M71">
         <v>56</v>
@@ -4313,39 +4526,42 @@
         <v>101</v>
       </c>
       <c r="O71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P71" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S71" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:22">
+      <c r="W71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72">
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M72">
         <v>56</v>
@@ -4354,39 +4570,42 @@
         <v>101</v>
       </c>
       <c r="O72" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P72" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S72" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:22">
+      <c r="W72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M73">
         <v>57</v>
@@ -4395,39 +4614,42 @@
         <v>102</v>
       </c>
       <c r="O73" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P73" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S73" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:22">
+      <c r="W73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M74">
         <v>59</v>
@@ -4436,39 +4658,42 @@
         <v>104</v>
       </c>
       <c r="O74" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P74" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S74" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:22">
+      <c r="W74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75">
         <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M75">
         <v>63</v>
@@ -4477,39 +4702,42 @@
         <v>110</v>
       </c>
       <c r="O75" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P75" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S75" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:22">
+      <c r="W75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C76" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M76">
         <v>68</v>
@@ -4518,39 +4746,42 @@
         <v>117</v>
       </c>
       <c r="O76" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P76" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="S76" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:22">
+      <c r="W76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77">
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M77">
         <v>68</v>
@@ -4559,15 +4790,18 @@
         <v>117</v>
       </c>
       <c r="O77" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="S77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_2.xlsx
+++ b/files/separadas/repeat_p24_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="330">
   <si>
     <t>p24_2_nom</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1384,13 +1387,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W77"/>
+  <dimension ref="A1:X77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,28 +1463,31 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1490,13 +1496,13 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1504,28 +1510,31 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M3">
         <v>7</v>
@@ -1534,13 +1543,13 @@
         <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="S3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1548,28 +1557,31 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -1578,13 +1590,13 @@
         <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="S4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1592,28 +1604,31 @@
       <c r="W4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1622,13 +1637,13 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1636,28 +1651,31 @@
       <c r="W5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D6">
         <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -1666,13 +1684,13 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P6" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1680,28 +1698,31 @@
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1710,13 +1731,13 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1724,28 +1745,31 @@
       <c r="W7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M8">
         <v>11</v>
@@ -1754,13 +1778,13 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -1768,28 +1792,31 @@
       <c r="W8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D9">
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -1798,13 +1825,13 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -1812,28 +1839,31 @@
       <c r="W9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D10">
         <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M10">
         <v>11</v>
@@ -1842,13 +1872,13 @@
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -1856,28 +1886,31 @@
       <c r="W10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D11">
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M11">
         <v>11</v>
@@ -1886,13 +1919,13 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -1900,28 +1933,31 @@
       <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D12">
         <v>400</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -1930,13 +1966,13 @@
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -1944,28 +1980,31 @@
       <c r="W12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D13">
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -1974,13 +2013,13 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -1988,28 +2027,31 @@
       <c r="W13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -2018,13 +2060,13 @@
         <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P14" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S14" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2032,28 +2074,31 @@
       <c r="W14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M15">
         <v>12</v>
@@ -2062,13 +2107,13 @@
         <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P15" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2076,28 +2121,31 @@
       <c r="W15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -2106,13 +2154,13 @@
         <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P16" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="S16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2120,28 +2168,31 @@
       <c r="W16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D17">
         <v>300</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M17">
         <v>16</v>
@@ -2150,13 +2201,13 @@
         <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P17" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="S17" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2164,28 +2215,31 @@
       <c r="W17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M18">
         <v>17</v>
@@ -2194,13 +2248,13 @@
         <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P18" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2208,28 +2262,31 @@
       <c r="W18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M19">
         <v>19</v>
@@ -2238,13 +2295,13 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2252,28 +2309,31 @@
       <c r="W19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M20">
         <v>19</v>
@@ -2282,13 +2342,13 @@
         <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S20" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2296,28 +2356,31 @@
       <c r="W20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D21">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -2326,13 +2389,13 @@
         <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2340,28 +2403,31 @@
       <c r="W21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D22">
         <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M22">
         <v>22</v>
@@ -2370,13 +2436,13 @@
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P22" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2384,28 +2450,31 @@
       <c r="W22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M23">
         <v>24</v>
@@ -2414,13 +2483,13 @@
         <v>51</v>
       </c>
       <c r="O23" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P23" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2428,28 +2497,31 @@
       <c r="W23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M24">
         <v>24</v>
@@ -2458,13 +2530,13 @@
         <v>51</v>
       </c>
       <c r="O24" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S24" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -2472,28 +2544,31 @@
       <c r="W24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2502,13 +2577,13 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -2516,28 +2591,31 @@
       <c r="W25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -2546,13 +2624,13 @@
         <v>51</v>
       </c>
       <c r="O26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P26" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -2560,28 +2638,31 @@
       <c r="W26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M27">
         <v>24</v>
@@ -2590,13 +2671,13 @@
         <v>51</v>
       </c>
       <c r="O27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P27" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S27" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -2604,28 +2685,31 @@
       <c r="W27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23">
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M28">
         <v>24</v>
@@ -2634,13 +2718,13 @@
         <v>51</v>
       </c>
       <c r="O28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2648,28 +2732,31 @@
       <c r="W28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M29">
         <v>24</v>
@@ -2678,13 +2765,13 @@
         <v>51</v>
       </c>
       <c r="O29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -2692,28 +2779,31 @@
       <c r="W29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:23">
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M30">
         <v>24</v>
@@ -2722,13 +2812,13 @@
         <v>51</v>
       </c>
       <c r="O30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P30" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S30" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -2736,28 +2826,31 @@
       <c r="W30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:23">
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M31">
         <v>24</v>
@@ -2766,13 +2859,13 @@
         <v>51</v>
       </c>
       <c r="O31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S31" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -2780,28 +2873,31 @@
       <c r="W31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:23">
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M32">
         <v>24</v>
@@ -2810,13 +2906,13 @@
         <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S32" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -2824,28 +2920,31 @@
       <c r="W32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:23">
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M33">
         <v>24</v>
@@ -2854,13 +2953,13 @@
         <v>51</v>
       </c>
       <c r="O33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -2868,28 +2967,31 @@
       <c r="W33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:23">
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M34">
         <v>24</v>
@@ -2898,13 +3000,13 @@
         <v>51</v>
       </c>
       <c r="O34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P34" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -2912,28 +3014,31 @@
       <c r="W34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:23">
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M35">
         <v>24</v>
@@ -2942,13 +3047,13 @@
         <v>51</v>
       </c>
       <c r="O35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P35" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S35" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -2956,28 +3061,31 @@
       <c r="W35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D36">
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -2986,13 +3094,13 @@
         <v>55</v>
       </c>
       <c r="O36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P36" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3000,28 +3108,31 @@
       <c r="W36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:23">
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D37">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -3030,13 +3141,13 @@
         <v>55</v>
       </c>
       <c r="O37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P37" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3044,28 +3155,31 @@
       <c r="W37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D38">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M38">
         <v>27</v>
@@ -3074,13 +3188,13 @@
         <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P38" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S38" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -3088,28 +3202,31 @@
       <c r="W38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M39">
         <v>30</v>
@@ -3118,13 +3235,13 @@
         <v>59</v>
       </c>
       <c r="O39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P39" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -3132,28 +3249,31 @@
       <c r="W39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:23">
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D40">
         <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M40">
         <v>32</v>
@@ -3162,13 +3282,13 @@
         <v>61</v>
       </c>
       <c r="O40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S40" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -3176,28 +3296,31 @@
       <c r="W40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D41">
         <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M41">
         <v>32</v>
@@ -3206,13 +3329,13 @@
         <v>61</v>
       </c>
       <c r="O41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S41" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -3220,28 +3343,31 @@
       <c r="W41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:23">
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D42">
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M42">
         <v>32</v>
@@ -3250,13 +3376,13 @@
         <v>61</v>
       </c>
       <c r="O42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -3264,28 +3390,31 @@
       <c r="W42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:23">
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D43">
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M43">
         <v>32</v>
@@ -3294,13 +3423,13 @@
         <v>61</v>
       </c>
       <c r="O43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -3308,28 +3437,31 @@
       <c r="W43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:23">
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D44">
         <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M44">
         <v>32</v>
@@ -3338,13 +3470,13 @@
         <v>61</v>
       </c>
       <c r="O44" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S44" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -3352,28 +3484,31 @@
       <c r="W44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D45">
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M45">
         <v>32</v>
@@ -3382,13 +3517,13 @@
         <v>61</v>
       </c>
       <c r="O45" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -3396,28 +3531,31 @@
       <c r="W45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M46">
         <v>33</v>
@@ -3426,13 +3564,13 @@
         <v>63</v>
       </c>
       <c r="O46" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P46" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -3440,28 +3578,31 @@
       <c r="W46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:23">
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M47">
         <v>33</v>
@@ -3470,13 +3611,13 @@
         <v>63</v>
       </c>
       <c r="O47" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P47" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -3484,28 +3625,31 @@
       <c r="W47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:23">
+      <c r="X47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M48">
         <v>33</v>
@@ -3514,13 +3658,13 @@
         <v>63</v>
       </c>
       <c r="O48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P48" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -3528,28 +3672,31 @@
       <c r="W48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:23">
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M49">
         <v>33</v>
@@ -3558,13 +3705,13 @@
         <v>63</v>
       </c>
       <c r="O49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P49" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -3572,28 +3719,31 @@
       <c r="W49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M50">
         <v>33</v>
@@ -3602,13 +3752,13 @@
         <v>63</v>
       </c>
       <c r="O50" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P50" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -3616,28 +3766,31 @@
       <c r="W50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:23">
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M51">
         <v>33</v>
@@ -3646,13 +3799,13 @@
         <v>63</v>
       </c>
       <c r="O51" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P51" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -3660,28 +3813,31 @@
       <c r="W51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:23">
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M52">
         <v>33</v>
@@ -3690,13 +3846,13 @@
         <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P52" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -3704,28 +3860,31 @@
       <c r="W52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:23">
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M53">
         <v>39</v>
@@ -3734,13 +3893,13 @@
         <v>81</v>
       </c>
       <c r="O53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P53" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -3748,28 +3907,31 @@
       <c r="W53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:23">
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M54">
         <v>39</v>
@@ -3778,13 +3940,13 @@
         <v>81</v>
       </c>
       <c r="O54" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S54" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -3792,28 +3954,31 @@
       <c r="W54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:23">
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M55">
         <v>39</v>
@@ -3822,13 +3987,13 @@
         <v>81</v>
       </c>
       <c r="O55" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S55" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -3836,28 +4001,31 @@
       <c r="W55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:23">
+      <c r="X55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M56">
         <v>39</v>
@@ -3866,13 +4034,13 @@
         <v>81</v>
       </c>
       <c r="O56" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P56" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S56" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -3880,28 +4048,31 @@
       <c r="W56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:23">
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M57">
         <v>39</v>
@@ -3910,13 +4081,13 @@
         <v>81</v>
       </c>
       <c r="O57" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P57" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S57" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -3924,28 +4095,31 @@
       <c r="W57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:23">
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M58">
         <v>39</v>
@@ -3954,13 +4128,13 @@
         <v>81</v>
       </c>
       <c r="O58" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P58" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S58" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -3968,28 +4142,31 @@
       <c r="W58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:23">
+      <c r="X58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M59">
         <v>39</v>
@@ -3998,13 +4175,13 @@
         <v>81</v>
       </c>
       <c r="O59" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P59" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S59" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -4012,28 +4189,31 @@
       <c r="W59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:23">
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M60">
         <v>42</v>
@@ -4042,13 +4222,13 @@
         <v>84</v>
       </c>
       <c r="O60" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P60" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S60" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -4056,28 +4236,31 @@
       <c r="W60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:23">
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D61">
         <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M61">
         <v>47</v>
@@ -4086,13 +4269,13 @@
         <v>91</v>
       </c>
       <c r="O61" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="S61" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -4100,28 +4283,31 @@
       <c r="W61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:23">
+      <c r="X61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D62">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M62">
         <v>51</v>
@@ -4130,13 +4316,13 @@
         <v>95</v>
       </c>
       <c r="O62" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -4144,28 +4330,31 @@
       <c r="W62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:23">
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M63">
         <v>51</v>
@@ -4174,13 +4363,13 @@
         <v>95</v>
       </c>
       <c r="O63" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S63" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -4188,28 +4377,31 @@
       <c r="W63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M64">
         <v>51</v>
@@ -4218,13 +4410,13 @@
         <v>95</v>
       </c>
       <c r="O64" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S64" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -4232,28 +4424,31 @@
       <c r="W64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:23">
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D65">
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M65">
         <v>51</v>
@@ -4262,13 +4457,13 @@
         <v>95</v>
       </c>
       <c r="O65" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P65" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S65" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -4276,28 +4471,31 @@
       <c r="W65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:23">
+      <c r="X65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D66">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M66">
         <v>51</v>
@@ -4306,13 +4504,13 @@
         <v>95</v>
       </c>
       <c r="O66" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P66" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S66" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -4320,28 +4518,31 @@
       <c r="W66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:23">
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C67" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M67">
         <v>51</v>
@@ -4350,13 +4551,13 @@
         <v>95</v>
       </c>
       <c r="O67" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P67" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S67" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -4364,28 +4565,31 @@
       <c r="W67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M68">
         <v>51</v>
@@ -4394,13 +4598,13 @@
         <v>95</v>
       </c>
       <c r="O68" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P68" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S68" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -4408,28 +4612,31 @@
       <c r="W68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:23">
+      <c r="X68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D69">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M69">
         <v>51</v>
@@ -4438,13 +4645,13 @@
         <v>95</v>
       </c>
       <c r="O69" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S69" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -4452,28 +4659,31 @@
       <c r="W69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D70">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M70">
         <v>51</v>
@@ -4482,13 +4692,13 @@
         <v>95</v>
       </c>
       <c r="O70" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P70" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S70" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -4496,28 +4706,31 @@
       <c r="W70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:23">
+      <c r="X70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M71">
         <v>56</v>
@@ -4526,13 +4739,13 @@
         <v>101</v>
       </c>
       <c r="O71" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P71" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S71" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -4540,28 +4753,31 @@
       <c r="W71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72">
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M72">
         <v>56</v>
@@ -4570,13 +4786,13 @@
         <v>101</v>
       </c>
       <c r="O72" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P72" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S72" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -4584,28 +4800,31 @@
       <c r="W72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:23">
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M73">
         <v>57</v>
@@ -4614,13 +4833,13 @@
         <v>102</v>
       </c>
       <c r="O73" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P73" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S73" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -4628,28 +4847,31 @@
       <c r="W73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M74">
         <v>59</v>
@@ -4658,13 +4880,13 @@
         <v>104</v>
       </c>
       <c r="O74" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P74" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -4672,28 +4894,31 @@
       <c r="W74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:23">
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75">
         <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M75">
         <v>63</v>
@@ -4702,13 +4927,13 @@
         <v>110</v>
       </c>
       <c r="O75" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P75" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -4716,28 +4941,31 @@
       <c r="W75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:23">
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M76">
         <v>68</v>
@@ -4746,13 +4974,13 @@
         <v>117</v>
       </c>
       <c r="O76" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P76" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="S76" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -4760,28 +4988,31 @@
       <c r="W76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:23">
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77">
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M77">
         <v>68</v>
@@ -4790,18 +5021,21 @@
         <v>117</v>
       </c>
       <c r="O77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="S77" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V77">
         <v>0</v>
       </c>
       <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p24_2.xlsx
+++ b/files/separadas/repeat_p24_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="328">
   <si>
     <t>p24_2_nom</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>_submission__tags</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1387,13 +1381,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X77"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1460,34 +1454,28 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M2">
         <v>3</v>
@@ -1496,45 +1484,39 @@
         <v>7</v>
       </c>
       <c r="O2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="P2" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M3">
         <v>7</v>
@@ -1543,45 +1525,39 @@
         <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P3" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="S3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4">
         <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M4">
         <v>8</v>
@@ -1590,45 +1566,39 @@
         <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P4" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="S4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -1637,45 +1607,39 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P5" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D6">
         <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M6">
         <v>11</v>
@@ -1684,45 +1648,39 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P6" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7">
         <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M7">
         <v>11</v>
@@ -1731,45 +1689,39 @@
         <v>17</v>
       </c>
       <c r="O7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P7" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D8">
         <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M8">
         <v>11</v>
@@ -1778,45 +1730,39 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P8" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9">
         <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M9">
         <v>11</v>
@@ -1825,45 +1771,39 @@
         <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P9" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10">
         <v>350</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M10">
         <v>11</v>
@@ -1872,45 +1812,39 @@
         <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P10" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D11">
         <v>250</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M11">
         <v>11</v>
@@ -1919,45 +1853,39 @@
         <v>17</v>
       </c>
       <c r="O11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P11" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D12">
         <v>400</v>
       </c>
       <c r="E12" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -1966,45 +1894,39 @@
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D13">
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -2013,45 +1935,39 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="P13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M14">
         <v>12</v>
@@ -2060,45 +1976,39 @@
         <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P14" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M15">
         <v>12</v>
@@ -2107,45 +2017,39 @@
         <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="P15" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S15" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D16">
         <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M16">
         <v>14</v>
@@ -2154,45 +2058,39 @@
         <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P16" s="2">
         <v>45029.8639699074</v>
       </c>
       <c r="S16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D17">
         <v>300</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M17">
         <v>16</v>
@@ -2201,45 +2099,39 @@
         <v>25</v>
       </c>
       <c r="O17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P17" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="S17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M18">
         <v>17</v>
@@ -2248,45 +2140,39 @@
         <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P18" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D19">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M19">
         <v>19</v>
@@ -2295,45 +2181,39 @@
         <v>30</v>
       </c>
       <c r="O19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P19" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M20">
         <v>19</v>
@@ -2342,45 +2222,39 @@
         <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P20" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D21">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M21">
         <v>19</v>
@@ -2389,45 +2263,39 @@
         <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="P21" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D22">
         <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M22">
         <v>22</v>
@@ -2436,45 +2304,39 @@
         <v>37</v>
       </c>
       <c r="O22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P22" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M23">
         <v>24</v>
@@ -2483,45 +2345,39 @@
         <v>51</v>
       </c>
       <c r="O23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P23" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M24">
         <v>24</v>
@@ -2530,45 +2386,39 @@
         <v>51</v>
       </c>
       <c r="O24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P24" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S24" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V24">
         <v>0</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M25">
         <v>24</v>
@@ -2577,45 +2427,39 @@
         <v>51</v>
       </c>
       <c r="O25" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P25" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S25" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M26">
         <v>24</v>
@@ -2624,45 +2468,39 @@
         <v>51</v>
       </c>
       <c r="O26" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P26" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S26" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M27">
         <v>24</v>
@@ -2671,45 +2509,39 @@
         <v>51</v>
       </c>
       <c r="O27" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P27" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V27">
         <v>0</v>
       </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M28">
         <v>24</v>
@@ -2718,45 +2550,39 @@
         <v>51</v>
       </c>
       <c r="O28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P28" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V28">
         <v>0</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M29">
         <v>24</v>
@@ -2765,45 +2591,39 @@
         <v>51</v>
       </c>
       <c r="O29" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P29" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M30">
         <v>24</v>
@@ -2812,45 +2632,39 @@
         <v>51</v>
       </c>
       <c r="O30" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P30" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S30" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M31">
         <v>24</v>
@@ -2859,45 +2673,39 @@
         <v>51</v>
       </c>
       <c r="O31" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P31" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M32">
         <v>24</v>
@@ -2906,45 +2714,39 @@
         <v>51</v>
       </c>
       <c r="O32" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P32" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D33">
         <v>5</v>
       </c>
       <c r="E33" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M33">
         <v>24</v>
@@ -2953,45 +2755,39 @@
         <v>51</v>
       </c>
       <c r="O33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P33" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M34">
         <v>24</v>
@@ -3000,45 +2796,39 @@
         <v>51</v>
       </c>
       <c r="O34" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P34" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S34" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M35">
         <v>24</v>
@@ -3047,45 +2837,39 @@
         <v>51</v>
       </c>
       <c r="O35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="P35" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S35" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D36">
         <v>27</v>
       </c>
       <c r="E36" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M36">
         <v>26</v>
@@ -3094,45 +2878,39 @@
         <v>55</v>
       </c>
       <c r="O36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P36" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D37">
         <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -3141,45 +2919,39 @@
         <v>55</v>
       </c>
       <c r="O37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="P37" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24">
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D38">
         <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M38">
         <v>27</v>
@@ -3188,45 +2960,39 @@
         <v>56</v>
       </c>
       <c r="O38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P38" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24">
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D39">
         <v>5</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M39">
         <v>30</v>
@@ -3235,45 +3001,39 @@
         <v>59</v>
       </c>
       <c r="O39" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P39" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D40">
         <v>67</v>
       </c>
       <c r="E40" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M40">
         <v>32</v>
@@ -3282,45 +3042,39 @@
         <v>61</v>
       </c>
       <c r="O40" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P40" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D41">
         <v>33</v>
       </c>
       <c r="E41" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M41">
         <v>32</v>
@@ -3329,45 +3083,39 @@
         <v>61</v>
       </c>
       <c r="O41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P41" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S41" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24">
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D42">
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M42">
         <v>32</v>
@@ -3376,45 +3124,39 @@
         <v>61</v>
       </c>
       <c r="O42" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P42" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24">
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D43">
         <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M43">
         <v>32</v>
@@ -3423,45 +3165,39 @@
         <v>61</v>
       </c>
       <c r="O43" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P43" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24">
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D44">
         <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M44">
         <v>32</v>
@@ -3470,45 +3206,39 @@
         <v>61</v>
       </c>
       <c r="O44" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P44" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24">
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D45">
         <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M45">
         <v>32</v>
@@ -3517,45 +3247,39 @@
         <v>61</v>
       </c>
       <c r="O45" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="P45" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S45" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24">
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M46">
         <v>33</v>
@@ -3564,45 +3288,39 @@
         <v>63</v>
       </c>
       <c r="O46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P46" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S46" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24">
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M47">
         <v>33</v>
@@ -3611,45 +3329,39 @@
         <v>63</v>
       </c>
       <c r="O47" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P47" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24">
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M48">
         <v>33</v>
@@ -3658,45 +3370,39 @@
         <v>63</v>
       </c>
       <c r="O48" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P48" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S48" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V48">
         <v>0</v>
       </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24">
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M49">
         <v>33</v>
@@ -3705,45 +3411,39 @@
         <v>63</v>
       </c>
       <c r="O49" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P49" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S49" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24">
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M50">
         <v>33</v>
@@ -3752,45 +3452,39 @@
         <v>63</v>
       </c>
       <c r="O50" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P50" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S50" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24">
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M51">
         <v>33</v>
@@ -3799,45 +3493,39 @@
         <v>63</v>
       </c>
       <c r="O51" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P51" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S51" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
-      <c r="W51">
-        <v>0</v>
-      </c>
-      <c r="X51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24">
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M52">
         <v>33</v>
@@ -3846,45 +3534,39 @@
         <v>63</v>
       </c>
       <c r="O52" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P52" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S52" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
-      <c r="W52">
-        <v>0</v>
-      </c>
-      <c r="X52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24">
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M53">
         <v>39</v>
@@ -3893,45 +3575,39 @@
         <v>81</v>
       </c>
       <c r="O53" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P53" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24">
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M54">
         <v>39</v>
@@ -3940,45 +3616,39 @@
         <v>81</v>
       </c>
       <c r="O54" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P54" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
-      <c r="W54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24">
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M55">
         <v>39</v>
@@ -3987,45 +3657,39 @@
         <v>81</v>
       </c>
       <c r="O55" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P55" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
-      <c r="W55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24">
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M56">
         <v>39</v>
@@ -4034,45 +3698,39 @@
         <v>81</v>
       </c>
       <c r="O56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P56" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S56" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
-      <c r="W56">
-        <v>0</v>
-      </c>
-      <c r="X56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24">
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M57">
         <v>39</v>
@@ -4081,45 +3739,39 @@
         <v>81</v>
       </c>
       <c r="O57" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P57" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S57" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
-      <c r="W57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M58">
         <v>39</v>
@@ -4128,45 +3780,39 @@
         <v>81</v>
       </c>
       <c r="O58" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P58" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S58" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24">
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D59">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M59">
         <v>39</v>
@@ -4175,45 +3821,39 @@
         <v>81</v>
       </c>
       <c r="O59" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P59" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S59" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
-      <c r="W59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24">
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C60" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M60">
         <v>42</v>
@@ -4222,45 +3862,39 @@
         <v>84</v>
       </c>
       <c r="O60" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P60" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S60" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24">
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D61">
         <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M61">
         <v>47</v>
@@ -4269,45 +3903,39 @@
         <v>91</v>
       </c>
       <c r="O61" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="P61" s="2">
         <v>45043.91625</v>
       </c>
       <c r="S61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
-      <c r="W61">
-        <v>0</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24">
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D62">
         <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M62">
         <v>51</v>
@@ -4316,45 +3944,39 @@
         <v>95</v>
       </c>
       <c r="O62" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P62" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S62" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
-      <c r="W62">
-        <v>0</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24">
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D63">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M63">
         <v>51</v>
@@ -4363,45 +3985,39 @@
         <v>95</v>
       </c>
       <c r="O63" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P63" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S63" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D64">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M64">
         <v>51</v>
@@ -4410,45 +4026,39 @@
         <v>95</v>
       </c>
       <c r="O64" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P64" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S64" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V64">
         <v>0</v>
       </c>
-      <c r="W64">
-        <v>0</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B65" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D65">
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M65">
         <v>51</v>
@@ -4457,45 +4067,39 @@
         <v>95</v>
       </c>
       <c r="O65" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P65" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S65" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V65">
         <v>0</v>
       </c>
-      <c r="W65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D66">
         <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M66">
         <v>51</v>
@@ -4504,45 +4108,39 @@
         <v>95</v>
       </c>
       <c r="O66" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P66" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S66" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V66">
         <v>0</v>
       </c>
-      <c r="W66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24">
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C67" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M67">
         <v>51</v>
@@ -4551,45 +4149,39 @@
         <v>95</v>
       </c>
       <c r="O67" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P67" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S67" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V67">
         <v>0</v>
       </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24">
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M68">
         <v>51</v>
@@ -4598,45 +4190,39 @@
         <v>95</v>
       </c>
       <c r="O68" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P68" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S68" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
-      <c r="W68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D69">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M69">
         <v>51</v>
@@ -4645,45 +4231,39 @@
         <v>95</v>
       </c>
       <c r="O69" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P69" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S69" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D70">
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M70">
         <v>51</v>
@@ -4692,45 +4272,39 @@
         <v>95</v>
       </c>
       <c r="O70" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="P70" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S70" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V70">
         <v>0</v>
       </c>
-      <c r="W70">
-        <v>0</v>
-      </c>
-      <c r="X70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M71">
         <v>56</v>
@@ -4739,45 +4313,39 @@
         <v>101</v>
       </c>
       <c r="O71" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P71" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S71" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V71">
         <v>0</v>
       </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-      <c r="X71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D72">
         <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M72">
         <v>56</v>
@@ -4786,45 +4354,39 @@
         <v>101</v>
       </c>
       <c r="O72" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P72" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S72" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V72">
         <v>0</v>
       </c>
-      <c r="W72">
-        <v>0</v>
-      </c>
-      <c r="X72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M73">
         <v>57</v>
@@ -4833,45 +4395,39 @@
         <v>102</v>
       </c>
       <c r="O73" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="P73" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S73" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V73">
         <v>0</v>
       </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-      <c r="X73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D74">
         <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M74">
         <v>59</v>
@@ -4880,45 +4436,39 @@
         <v>104</v>
       </c>
       <c r="O74" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P74" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24">
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75">
         <v>32</v>
       </c>
       <c r="E75" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M75">
         <v>63</v>
@@ -4927,45 +4477,39 @@
         <v>110</v>
       </c>
       <c r="O75" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P75" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S75" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V75">
         <v>0</v>
       </c>
-      <c r="W75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24">
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M76">
         <v>68</v>
@@ -4974,45 +4518,39 @@
         <v>117</v>
       </c>
       <c r="O76" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P76" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="S76" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V76">
         <v>0</v>
       </c>
-      <c r="W76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24">
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77">
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M77">
         <v>68</v>
@@ -5021,21 +4559,15 @@
         <v>117</v>
       </c>
       <c r="O77" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="P77" s="2">
         <v>45048.78865740741</v>
       </c>
       <c r="S77" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="V77">
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <v>0</v>
-      </c>
-      <c r="X77">
         <v>0</v>
       </c>
     </row>
